--- a/NUEVO ORGANIZADO/Diagramas/Diagrama de Casos de Uso/CUE/Casos de uso extendido.xlsx
+++ b/NUEVO ORGANIZADO/Diagramas/Diagrama de Casos de Uso/CUE/Casos de uso extendido.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Verf\Proyecto\Diagramas\Diagrama de Casos de Uso\CUE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CEM MADH\Verf\Proyecto\Diagramas\Diagrama de Casos de Uso\CUE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="112">
   <si>
     <t xml:space="preserve">Nombre del caso de uso </t>
   </si>
@@ -336,12 +336,36 @@
   </si>
   <si>
     <t>Descontar productos vendidos /CU11</t>
+  </si>
+  <si>
+    <t>Descontar productos vendidos /CU12</t>
+  </si>
+  <si>
+    <t>Gerente,Epleado, Cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los usuarios podrán cambiar la contraseña cuando lo deseen </t>
+  </si>
+  <si>
+    <t>El usuario ingresara al formato inicio de sesion y dara clicen "¿olvidaste tu contraseña?"</t>
+  </si>
+  <si>
+    <t>El usuario responde las preguntas</t>
+  </si>
+  <si>
+    <t>Elusuario cambia su contraseña</t>
+  </si>
+  <si>
+    <t>El usuario tiene una contraseña nueva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primario </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -457,7 +481,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -496,11 +520,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -782,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F159"/>
+  <dimension ref="B2:F170"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D10"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="M171" sqref="M171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,14 +1341,14 @@
       </c>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B67" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="D67" s="1"/>
+      <c r="D67" s="31"/>
     </row>
     <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
@@ -1451,10 +1489,10 @@
       <c r="B85" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C85" s="24" t="s">
+      <c r="C85" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="D85" s="25"/>
+      <c r="D85" s="27"/>
     </row>
     <row r="86" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
@@ -1547,10 +1585,10 @@
       <c r="B98" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C98" s="24" t="s">
+      <c r="C98" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D98" s="25"/>
+      <c r="D98" s="27"/>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
@@ -1653,10 +1691,10 @@
       <c r="B115" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C115" s="20" t="s">
+      <c r="C115" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="D115" s="21"/>
+      <c r="D115" s="25"/>
     </row>
     <row r="116" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B116" s="5" t="s">
@@ -1741,10 +1779,10 @@
       <c r="B127" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C127" s="20" t="s">
+      <c r="C127" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="D127" s="21"/>
+      <c r="D127" s="25"/>
     </row>
     <row r="128" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B128" s="5" t="s">
@@ -1830,10 +1868,10 @@
       <c r="B139" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C139" s="20" t="s">
+      <c r="C139" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D139" s="21"/>
+      <c r="D139" s="25"/>
     </row>
     <row r="140" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B140" s="5" t="s">
@@ -1923,10 +1961,10 @@
       <c r="B150" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C150" s="20" t="s">
+      <c r="C150" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="D150" s="21"/>
+      <c r="D150" s="25"/>
     </row>
     <row r="151" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B151" s="5" t="s">
@@ -2007,8 +2045,102 @@
       <c r="C159" s="6"/>
       <c r="D159" s="7"/>
     </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="D161" s="25"/>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D162" s="1"/>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C163" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D163" s="29"/>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D164" s="21"/>
+    </row>
+    <row r="165" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B165" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B166" s="8"/>
+      <c r="C166" s="3">
+        <v>1</v>
+      </c>
+      <c r="D166" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B167" s="8"/>
+      <c r="C167" s="4">
+        <v>2</v>
+      </c>
+      <c r="D167" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B168" s="8"/>
+      <c r="C168" s="4">
+        <v>3</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="169" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B169" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D169" s="1"/>
+    </row>
+    <row r="170" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B170" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C170" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D170" s="21"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
+    <mergeCell ref="C161:D161"/>
+    <mergeCell ref="C163:D163"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C150:D150"/>
     <mergeCell ref="C65:D65"/>
@@ -2017,6 +2149,7 @@
     <mergeCell ref="C127:D127"/>
     <mergeCell ref="C115:D115"/>
     <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C67:D67"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
